--- a/data/output/FV2504_FV2410/UTILMD/55218.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55218.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="379">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="379">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1326,6 +1326,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U172" totalsRowShown="0">
+  <autoFilter ref="A1:U172"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1615,7 +1645,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9206,5 +9239,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55218.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55218.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="544">
   <si>
     <t>#</t>
   </si>
@@ -4952,46 +4952,44 @@
       <c r="V56" s="11"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="L57" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M57" s="5" t="s">
+      <c r="L57" s="4"/>
+      <c r="M57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5" t="s">
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V57" s="5" t="s">
+      <c r="V57" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5164,44 +5162,42 @@
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M61" s="5" t="s">
+      <c r="K61" s="2"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="N61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5" t="s">
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V61" s="5"/>
+      <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -7725,9 +7721,7 @@
         <v>218</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>35</v>
       </c>
@@ -7779,9 +7773,7 @@
         <v>219</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>35</v>
       </c>
@@ -7896,52 +7888,50 @@
       </c>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5" t="s">
+      <c r="E125" s="2"/>
+      <c r="F125" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5" t="s">
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M125" s="5" t="s">
+      <c r="K125" s="2"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N125" s="5" t="s">
+      <c r="N125" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O125" s="5" t="s">
+      <c r="O125" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5" t="s">
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="R125" s="5"/>
-      <c r="S125" s="5"/>
-      <c r="T125" s="5"/>
-      <c r="U125" s="5" t="s">
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V125" s="5"/>
+      <c r="V125" s="2"/>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="5" t="s">
@@ -7973,9 +7963,7 @@
         <v>219</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>36</v>
       </c>
@@ -8033,9 +8021,7 @@
       <c r="K127" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="L127" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>36</v>
       </c>
@@ -8093,9 +8079,7 @@
         <v>231</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>36</v>
       </c>
@@ -8153,9 +8137,7 @@
       <c r="K129" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="L129" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>36</v>
       </c>
@@ -8251,9 +8233,7 @@
         <v>218</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>37</v>
       </c>
@@ -8305,9 +8285,7 @@
         <v>219</v>
       </c>
       <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>37</v>
       </c>
@@ -8365,9 +8343,7 @@
       <c r="K133" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L133" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>37</v>
       </c>
@@ -8521,9 +8497,7 @@
         <v>218</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>38</v>
       </c>
@@ -8575,9 +8549,7 @@
         <v>219</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>38</v>
       </c>
@@ -8635,9 +8607,7 @@
       <c r="K138" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>38</v>
       </c>
@@ -8695,9 +8665,7 @@
         <v>219</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>38</v>
       </c>
@@ -8791,9 +8759,7 @@
         <v>218</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>39</v>
       </c>
@@ -8845,9 +8811,7 @@
         <v>219</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>39</v>
       </c>
@@ -8903,9 +8867,7 @@
         <v>219</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>39</v>
       </c>
@@ -8959,9 +8921,7 @@
         <v>219</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>39</v>
       </c>
@@ -9017,9 +8977,7 @@
       <c r="K145" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="L145" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>39</v>
       </c>
@@ -9077,9 +9035,7 @@
         <v>219</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>39</v>
       </c>
@@ -9175,9 +9131,7 @@
         <v>218</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>40</v>
       </c>
@@ -9229,9 +9183,7 @@
         <v>219</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>40</v>
       </c>
@@ -9287,9 +9239,7 @@
         <v>219</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>40</v>
       </c>
@@ -9383,9 +9333,7 @@
         <v>218</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>41</v>
       </c>
@@ -9437,9 +9385,7 @@
         <v>219</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>41</v>
       </c>
@@ -9497,9 +9443,7 @@
         <v>219</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>41</v>
       </c>
@@ -9557,9 +9501,7 @@
       <c r="K155" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="L155" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>41</v>
       </c>
@@ -9655,9 +9597,7 @@
         <v>218</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>42</v>
       </c>
@@ -9709,9 +9649,7 @@
         <v>219</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>42</v>
       </c>
@@ -9767,9 +9705,7 @@
         <v>219</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>42</v>
       </c>
@@ -9863,9 +9799,7 @@
         <v>218</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>43</v>
       </c>
@@ -9917,9 +9851,7 @@
         <v>219</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>43</v>
       </c>
@@ -9975,9 +9907,7 @@
         <v>219</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>43</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55218.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55218.xlsx
@@ -1805,7 +1805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1828,6 +1828,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1836,6 +1839,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2278,7 +2284,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2642,7 +2648,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2788,7 +2794,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2990,7 +2996,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3298,7 +3304,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3498,7 +3504,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3872,7 +3878,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4184,7 +4190,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4366,24 +4372,24 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9" t="s">
+      <c r="K43" s="9"/>
+      <c r="L43" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M43" s="5"/>
@@ -4401,33 +4407,33 @@
       <c r="A44" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M44" s="5"/>
@@ -4445,33 +4451,33 @@
       <c r="A45" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M45" s="5"/>
@@ -4489,33 +4495,33 @@
       <c r="A46" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M46" s="5"/>
@@ -4536,24 +4542,24 @@
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M47" s="5"/>
@@ -4571,33 +4577,33 @@
       <c r="A48" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M48" s="5"/>
@@ -4615,31 +4621,31 @@
       <c r="A49" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M49" s="5"/>
@@ -4657,33 +4663,33 @@
       <c r="A50" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M50" s="5"/>
@@ -4704,26 +4710,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M51" s="5"/>
@@ -4741,33 +4747,33 @@
       <c r="A52" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M52" s="5"/>
@@ -4785,33 +4791,33 @@
       <c r="A53" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>257</v>
       </c>
       <c r="M53" s="5"/>
@@ -4839,29 +4845,29 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11" t="s">
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11" t="s">
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V54" s="11"/>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4877,35 +4883,35 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4921,35 +4927,35 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="2" t="s">
@@ -4974,7 +4980,7 @@
         <v>244</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5182,7 +5188,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5381,25 +5387,25 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11" t="s">
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="V65" s="11" t="s">
+      <c r="V65" s="13" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5417,29 +5423,29 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11" t="s">
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11" t="s">
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V66" s="11"/>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -5455,33 +5461,33 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="S67" s="13"/>
+      <c r="T67" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="U67" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V67" s="11"/>
+      <c r="U67" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -5497,33 +5503,33 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11" t="s">
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="U68" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V68" s="11"/>
+      <c r="U68" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -5539,33 +5545,33 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="Q69" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="U69" s="11" t="s">
+      <c r="U69" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="V69" s="11" t="s">
+      <c r="V69" s="13" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5583,29 +5589,29 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11" t="s">
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11" t="s">
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="V70" s="11" t="s">
+      <c r="V70" s="13" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5623,35 +5629,35 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="R71" s="11" t="s">
+      <c r="R71" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="U71" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V71" s="11"/>
+      <c r="U71" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V71" s="13"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">
@@ -5667,33 +5673,33 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11" t="s">
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="U72" s="11" t="s">
+      <c r="U72" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="V72" s="11"/>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -5709,35 +5715,35 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P73" s="11" t="s">
+      <c r="P73" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q73" s="11" t="s">
+      <c r="Q73" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="R73" s="11" t="s">
+      <c r="R73" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11" t="s">
+      <c r="S73" s="13"/>
+      <c r="T73" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="U73" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V73" s="11"/>
+      <c r="U73" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -5753,29 +5759,29 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11" t="s">
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11" t="s">
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="V74" s="11" t="s">
+      <c r="V74" s="13" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5793,35 +5799,35 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q75" s="11" t="s">
+      <c r="Q75" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="R75" s="11" t="s">
+      <c r="R75" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11" t="s">
+      <c r="S75" s="13"/>
+      <c r="T75" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="U75" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V75" s="11"/>
+      <c r="U75" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V75" s="13"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5837,33 +5843,33 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q76" s="11" t="s">
+      <c r="Q76" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11" t="s">
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="U76" s="11" t="s">
+      <c r="U76" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="V76" s="11"/>
+      <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5879,35 +5885,35 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M77" s="11" t="s">
+      <c r="M77" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N77" s="11" t="s">
+      <c r="N77" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O77" s="11" t="s">
+      <c r="O77" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P77" s="11" t="s">
+      <c r="P77" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q77" s="11" t="s">
+      <c r="Q77" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="R77" s="11" t="s">
+      <c r="R77" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11" t="s">
+      <c r="S77" s="13"/>
+      <c r="T77" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="U77" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V77" s="11"/>
+      <c r="U77" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V77" s="13"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
@@ -5923,25 +5929,25 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="10" t="s">
+      <c r="L78" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M78" s="11" t="s">
+      <c r="M78" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="N78" s="11" t="s">
+      <c r="N78" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11" t="s">
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="V78" s="11" t="s">
+      <c r="V78" s="13" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5959,29 +5965,29 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="10" t="s">
+      <c r="L79" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="M79" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="N79" s="11" t="s">
+      <c r="N79" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O79" s="11" t="s">
+      <c r="O79" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11" t="s">
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11" t="s">
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V79" s="11"/>
+      <c r="V79" s="13"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -5997,35 +6003,35 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="10" t="s">
+      <c r="L80" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="M80" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="N80" s="11" t="s">
+      <c r="N80" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O80" s="11" t="s">
+      <c r="O80" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P80" s="11" t="s">
+      <c r="P80" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q80" s="11" t="s">
+      <c r="Q80" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="R80" s="11" t="s">
+      <c r="R80" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11" t="s">
+      <c r="S80" s="13"/>
+      <c r="T80" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="U80" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V80" s="11"/>
+      <c r="U80" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V80" s="13"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -6041,33 +6047,33 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="N81" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O81" s="11" t="s">
+      <c r="O81" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P81" s="11" t="s">
+      <c r="P81" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q81" s="11" t="s">
+      <c r="Q81" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11" t="s">
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="U81" s="11" t="s">
+      <c r="U81" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="V81" s="11" t="s">
+      <c r="V81" s="13" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6085,29 +6091,29 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M82" s="11" t="s">
+      <c r="M82" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11" t="s">
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11" t="s">
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V82" s="11" t="s">
+      <c r="V82" s="13" t="s">
         <v>371</v>
       </c>
     </row>
@@ -6125,35 +6131,35 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M83" s="11" t="s">
+      <c r="M83" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="N83" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O83" s="11" t="s">
+      <c r="O83" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P83" s="11" t="s">
+      <c r="P83" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q83" s="11" t="s">
+      <c r="Q83" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="R83" s="11" t="s">
+      <c r="R83" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11" t="s">
+      <c r="S83" s="13"/>
+      <c r="T83" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="U83" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V83" s="11"/>
+      <c r="U83" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V83" s="13"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -6169,33 +6175,33 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q84" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11" t="s">
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="U84" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V84" s="11"/>
+      <c r="U84" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V84" s="13"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -6211,35 +6217,35 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P85" s="11" t="s">
+      <c r="P85" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q85" s="11" t="s">
+      <c r="Q85" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="R85" s="11" t="s">
+      <c r="R85" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11" t="s">
+      <c r="S85" s="13"/>
+      <c r="T85" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="U85" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V85" s="11"/>
+      <c r="U85" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V85" s="13"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -6255,33 +6261,33 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P86" s="11" t="s">
+      <c r="P86" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11" t="s">
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11" t="s">
+      <c r="S86" s="13"/>
+      <c r="T86" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="U86" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V86" s="11"/>
+      <c r="U86" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V86" s="13"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -6297,29 +6303,29 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N87" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11" t="s">
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11" t="s">
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="V87" s="11" t="s">
+      <c r="V87" s="13" t="s">
         <v>372</v>
       </c>
     </row>
@@ -6337,35 +6343,35 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="10" t="s">
+      <c r="L88" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M88" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N88" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O88" s="11" t="s">
+      <c r="O88" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P88" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q88" s="11" t="s">
+      <c r="Q88" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="R88" s="11" t="s">
+      <c r="R88" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11" t="s">
+      <c r="S88" s="13"/>
+      <c r="T88" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="U88" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V88" s="11"/>
+      <c r="U88" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V88" s="13"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -6381,33 +6387,33 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P89" s="11" t="s">
+      <c r="P89" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q89" s="11" t="s">
+      <c r="Q89" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11" t="s">
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="U89" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V89" s="11"/>
+      <c r="U89" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V89" s="13"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -6423,35 +6429,35 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="10" t="s">
+      <c r="L90" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="M90" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q90" s="11" t="s">
+      <c r="Q90" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="R90" s="11" t="s">
+      <c r="R90" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11" t="s">
+      <c r="S90" s="13"/>
+      <c r="T90" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="U90" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V90" s="11"/>
+      <c r="U90" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V90" s="13"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -6467,29 +6473,29 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="10" t="s">
+      <c r="L91" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M91" s="11" t="s">
+      <c r="M91" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O91" s="11" t="s">
+      <c r="O91" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11" t="s">
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11" t="s">
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V91" s="11" t="s">
+      <c r="V91" s="13" t="s">
         <v>371</v>
       </c>
     </row>
@@ -6507,35 +6513,35 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O92" s="11" t="s">
+      <c r="O92" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P92" s="11" t="s">
+      <c r="P92" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q92" s="11" t="s">
+      <c r="Q92" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="R92" s="11" t="s">
+      <c r="R92" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11" t="s">
+      <c r="S92" s="13"/>
+      <c r="T92" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="U92" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V92" s="11"/>
+      <c r="U92" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -6551,33 +6557,33 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M93" s="11" t="s">
+      <c r="M93" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="N93" s="11" t="s">
+      <c r="N93" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O93" s="11" t="s">
+      <c r="O93" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P93" s="11" t="s">
+      <c r="P93" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q93" s="11" t="s">
+      <c r="Q93" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11" t="s">
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="U93" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V93" s="11"/>
+      <c r="U93" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V93" s="13"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6593,35 +6599,35 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M94" s="11" t="s">
+      <c r="M94" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="N94" s="11" t="s">
+      <c r="N94" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O94" s="11" t="s">
+      <c r="O94" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P94" s="11" t="s">
+      <c r="P94" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q94" s="11" t="s">
+      <c r="Q94" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="R94" s="11" t="s">
+      <c r="R94" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11" t="s">
+      <c r="S94" s="13"/>
+      <c r="T94" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="U94" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V94" s="11"/>
+      <c r="U94" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V94" s="13"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -6637,25 +6643,25 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="N95" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
-      <c r="U95" s="11" t="s">
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="V95" s="11" t="s">
+      <c r="V95" s="13" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6673,29 +6679,29 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O96" s="11" t="s">
+      <c r="O96" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11" t="s">
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11" t="s">
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V96" s="11"/>
+      <c r="V96" s="13"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6711,35 +6717,35 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P97" s="11" t="s">
+      <c r="P97" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q97" s="11" t="s">
+      <c r="Q97" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="R97" s="11" t="s">
+      <c r="R97" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11" t="s">
+      <c r="S97" s="13"/>
+      <c r="T97" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="U97" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V97" s="11"/>
+      <c r="U97" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V97" s="13"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="5" t="s">
@@ -6755,33 +6761,33 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="10" t="s">
+      <c r="L98" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M98" s="11" t="s">
+      <c r="M98" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="Q98" s="11" t="s">
+      <c r="Q98" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11" t="s">
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="U98" s="11" t="s">
+      <c r="U98" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="V98" s="11" t="s">
+      <c r="V98" s="13" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6799,25 +6805,25 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11" t="s">
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="V99" s="11" t="s">
+      <c r="V99" s="13" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6835,29 +6841,29 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="10" t="s">
+      <c r="L100" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M100" s="11" t="s">
+      <c r="M100" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="N100" s="11" t="s">
+      <c r="N100" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O100" s="11" t="s">
+      <c r="O100" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11" t="s">
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11"/>
-      <c r="U100" s="11" t="s">
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V100" s="11"/>
+      <c r="V100" s="13"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -6873,35 +6879,35 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P101" s="11" t="s">
+      <c r="P101" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q101" s="11" t="s">
+      <c r="Q101" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="R101" s="11" t="s">
+      <c r="R101" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11" t="s">
+      <c r="S101" s="13"/>
+      <c r="T101" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="U101" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V101" s="11"/>
+      <c r="U101" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V101" s="13"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -6917,29 +6923,29 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11" t="s">
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11" t="s">
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V102" s="11"/>
+      <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -6955,35 +6961,35 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q103" s="11" t="s">
+      <c r="Q103" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="R103" s="11" t="s">
+      <c r="R103" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11" t="s">
+      <c r="S103" s="13"/>
+      <c r="T103" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="U103" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V103" s="11"/>
+      <c r="U103" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V103" s="13"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -6999,33 +7005,33 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N104" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P104" s="11" t="s">
+      <c r="P104" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="Q104" s="11" t="s">
+      <c r="Q104" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11" t="s">
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="U104" s="11" t="s">
+      <c r="U104" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="V104" s="11" t="s">
+      <c r="V104" s="13" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7043,25 +7049,25 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N105" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11" t="s">
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V105" s="11" t="s">
+      <c r="V105" s="13" t="s">
         <v>371</v>
       </c>
     </row>
@@ -7079,29 +7085,29 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="N106" s="11" t="s">
+      <c r="N106" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="11" t="s">
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11"/>
-      <c r="U106" s="11" t="s">
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V106" s="11"/>
+      <c r="V106" s="13"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -7117,35 +7123,35 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="Q107" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="R107" s="11" t="s">
+      <c r="R107" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="U107" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V107" s="11"/>
+      <c r="U107" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7161,29 +7167,29 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11" t="s">
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
-      <c r="U108" s="11" t="s">
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V108" s="11"/>
+      <c r="V108" s="13"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -7199,35 +7205,35 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="P109" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q109" s="11" t="s">
+      <c r="Q109" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="R109" s="11" t="s">
+      <c r="R109" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11" t="s">
+      <c r="S109" s="13"/>
+      <c r="T109" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="U109" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V109" s="11"/>
+      <c r="U109" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V109" s="13"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
@@ -7243,35 +7249,35 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="N110" s="11" t="s">
+      <c r="N110" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="Q110" s="11" t="s">
+      <c r="Q110" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="R110" s="11" t="s">
+      <c r="R110" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11" t="s">
+      <c r="S110" s="13"/>
+      <c r="T110" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="U110" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V110" s="11"/>
+      <c r="U110" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V110" s="13"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7287,33 +7293,33 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N111" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P111" s="11" t="s">
+      <c r="P111" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="11" t="s">
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11" t="s">
+      <c r="S111" s="13"/>
+      <c r="T111" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="U111" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V111" s="11"/>
+      <c r="U111" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V111" s="13"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -7329,29 +7335,29 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N112" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11" t="s">
+      <c r="P112" s="13"/>
+      <c r="Q112" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11"/>
-      <c r="U112" s="11" t="s">
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="13"/>
+      <c r="U112" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V112" s="11"/>
+      <c r="V112" s="13"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="5" t="s">
@@ -7367,35 +7373,35 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N113" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="P113" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q113" s="11" t="s">
+      <c r="Q113" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="R113" s="11" t="s">
+      <c r="R113" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11" t="s">
+      <c r="S113" s="13"/>
+      <c r="T113" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="U113" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V113" s="11"/>
+      <c r="U113" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V113" s="13"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -7411,35 +7417,35 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="N114" s="11" t="s">
+      <c r="N114" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P114" s="11" t="s">
+      <c r="P114" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="Q114" s="11" t="s">
+      <c r="Q114" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="R114" s="11" t="s">
+      <c r="R114" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11" t="s">
+      <c r="S114" s="13"/>
+      <c r="T114" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="U114" s="11" t="s">
+      <c r="U114" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="V114" s="11"/>
+      <c r="V114" s="13"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -7455,33 +7461,33 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M115" s="11" t="s">
+      <c r="M115" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="N115" s="11" t="s">
+      <c r="N115" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P115" s="11" t="s">
+      <c r="P115" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11" t="s">
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11" t="s">
+      <c r="S115" s="13"/>
+      <c r="T115" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="U115" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V115" s="11" t="s">
+      <c r="U115" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V115" s="13" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7499,29 +7505,29 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-      <c r="L116" s="10" t="s">
+      <c r="L116" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M116" s="11" t="s">
+      <c r="M116" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="N116" s="11" t="s">
+      <c r="N116" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O116" s="11" t="s">
+      <c r="O116" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="11" t="s">
+      <c r="P116" s="13"/>
+      <c r="Q116" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11"/>
-      <c r="U116" s="11" t="s">
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V116" s="11"/>
+      <c r="V116" s="13"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -7537,35 +7543,35 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
-      <c r="L117" s="10" t="s">
+      <c r="L117" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M117" s="11" t="s">
+      <c r="M117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="N117" s="11" t="s">
+      <c r="N117" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O117" s="11" t="s">
+      <c r="O117" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P117" s="11" t="s">
+      <c r="P117" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q117" s="11" t="s">
+      <c r="Q117" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="R117" s="11" t="s">
+      <c r="R117" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11" t="s">
+      <c r="S117" s="13"/>
+      <c r="T117" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="U117" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V117" s="11"/>
+      <c r="U117" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V117" s="13"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="5" t="s">
@@ -7581,35 +7587,35 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
-      <c r="L118" s="10" t="s">
+      <c r="L118" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M118" s="11" t="s">
+      <c r="M118" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="N118" s="11" t="s">
+      <c r="N118" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O118" s="11" t="s">
+      <c r="O118" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P118" s="11" t="s">
+      <c r="P118" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="Q118" s="11" t="s">
+      <c r="Q118" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="R118" s="11" t="s">
+      <c r="R118" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="S118" s="11"/>
-      <c r="T118" s="11" t="s">
+      <c r="S118" s="13"/>
+      <c r="T118" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="U118" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V118" s="11"/>
+      <c r="U118" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V118" s="13"/>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="5" t="s">
@@ -7625,50 +7631,50 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
-      <c r="L119" s="10" t="s">
+      <c r="L119" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M119" s="11" t="s">
+      <c r="M119" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="N119" s="11" t="s">
+      <c r="N119" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O119" s="11" t="s">
+      <c r="O119" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P119" s="11" t="s">
+      <c r="P119" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="Q119" s="11"/>
-      <c r="R119" s="11" t="s">
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="S119" s="11"/>
-      <c r="T119" s="11" t="s">
+      <c r="S119" s="13"/>
+      <c r="T119" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="U119" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V119" s="11"/>
+      <c r="U119" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V119" s="13"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
       <c r="J120" s="6" t="s">
         <v>229</v>
       </c>
@@ -7678,18 +7684,18 @@
       <c r="L120" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="M120" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N120" s="5" t="s">
+      <c r="N120" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5"/>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
       <c r="U120" s="6" t="s">
         <v>362</v>
       </c>
@@ -7815,33 +7821,33 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-      <c r="L123" s="10" t="s">
+      <c r="L123" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M123" s="11" t="s">
+      <c r="M123" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N123" s="11" t="s">
+      <c r="N123" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O123" s="11" t="s">
+      <c r="O123" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P123" s="11" t="s">
+      <c r="P123" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q123" s="11"/>
-      <c r="R123" s="11" t="s">
+      <c r="Q123" s="13"/>
+      <c r="R123" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11" t="s">
+      <c r="S123" s="13"/>
+      <c r="T123" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="U123" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V123" s="11"/>
+      <c r="U123" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V123" s="13"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -7857,33 +7863,33 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
-      <c r="L124" s="10" t="s">
+      <c r="L124" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M124" s="11" t="s">
+      <c r="M124" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N124" s="11" t="s">
+      <c r="N124" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O124" s="11" t="s">
+      <c r="O124" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P124" s="11" t="s">
+      <c r="P124" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="Q124" s="11" t="s">
+      <c r="Q124" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="R124" s="11"/>
-      <c r="S124" s="11"/>
-      <c r="T124" s="11" t="s">
+      <c r="R124" s="13"/>
+      <c r="S124" s="13"/>
+      <c r="T124" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="U124" s="11" t="s">
+      <c r="U124" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="V124" s="11" t="s">
+      <c r="V124" s="13" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7912,7 +7918,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8166,22 +8172,22 @@
       </c>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5" t="s">
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2" t="s">
         <v>233</v>
       </c>
       <c r="K130" s="6" t="s">
@@ -8190,19 +8196,19 @@
       <c r="L130" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M130" s="5" t="s">
+      <c r="M130" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N130" s="5" t="s">
+      <c r="N130" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5" t="s">
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2" t="s">
         <v>233</v>
       </c>
       <c r="V130" s="6" t="s">
@@ -8432,41 +8438,41 @@
       <c r="V134" s="5"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5" t="s">
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
         <v>218</v>
       </c>
       <c r="K135" s="6"/>
       <c r="L135" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M135" s="5" t="s">
+      <c r="M135" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5" t="s">
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2" t="s">
         <v>218</v>
       </c>
       <c r="V135" s="6" t="s">
@@ -8694,41 +8700,41 @@
       <c r="V139" s="5"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5" t="s">
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2" t="s">
         <v>218</v>
       </c>
       <c r="K140" s="6"/>
       <c r="L140" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M140" s="5" t="s">
+      <c r="M140" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N140" s="5" t="s">
+      <c r="N140" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5" t="s">
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2" t="s">
         <v>218</v>
       </c>
       <c r="V140" s="6" t="s">
@@ -9064,22 +9070,22 @@
       <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5" t="s">
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
         <v>237</v>
       </c>
       <c r="K147" s="6" t="s">
@@ -9088,19 +9094,19 @@
       <c r="L147" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M147" s="5" t="s">
+      <c r="M147" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N147" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5" t="s">
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2" t="s">
         <v>237</v>
       </c>
       <c r="V147" s="6" t="s">
@@ -9266,22 +9272,22 @@
       <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5" t="s">
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2" t="s">
         <v>237</v>
       </c>
       <c r="K151" s="6" t="s">
@@ -9290,19 +9296,19 @@
       <c r="L151" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M151" s="5" t="s">
+      <c r="M151" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N151" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5" t="s">
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2" t="s">
         <v>237</v>
       </c>
       <c r="V151" s="6" t="s">
@@ -9530,21 +9536,21 @@
       </c>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
       <c r="J156" s="6" t="s">
         <v>239</v>
       </c>
@@ -9554,18 +9560,18 @@
       <c r="L156" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M156" s="5" t="s">
+      <c r="M156" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N156" s="5" t="s">
+      <c r="N156" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
       <c r="U156" s="6" t="s">
         <v>363</v>
       </c>
@@ -9732,21 +9738,21 @@
       <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
       <c r="J160" s="6" t="s">
         <v>239</v>
       </c>
@@ -9756,18 +9762,18 @@
       <c r="L160" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M160" s="5" t="s">
+      <c r="M160" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
       <c r="U160" s="6" t="s">
         <v>363</v>
       </c>
@@ -9947,25 +9953,25 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
-      <c r="L164" s="10" t="s">
+      <c r="L164" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M164" s="11" t="s">
+      <c r="M164" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="N164" s="11" t="s">
+      <c r="N164" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O164" s="11"/>
-      <c r="P164" s="11"/>
-      <c r="Q164" s="11"/>
-      <c r="R164" s="11"/>
-      <c r="S164" s="11"/>
-      <c r="T164" s="11"/>
-      <c r="U164" s="11" t="s">
+      <c r="O164" s="13"/>
+      <c r="P164" s="13"/>
+      <c r="Q164" s="13"/>
+      <c r="R164" s="13"/>
+      <c r="S164" s="13"/>
+      <c r="T164" s="13"/>
+      <c r="U164" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V164" s="11" t="s">
+      <c r="V164" s="13" t="s">
         <v>371</v>
       </c>
     </row>
@@ -9983,29 +9989,29 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
-      <c r="L165" s="10" t="s">
+      <c r="L165" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M165" s="11" t="s">
+      <c r="M165" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="N165" s="11" t="s">
+      <c r="N165" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O165" s="11" t="s">
+      <c r="O165" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P165" s="11"/>
-      <c r="Q165" s="11" t="s">
+      <c r="P165" s="13"/>
+      <c r="Q165" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R165" s="11"/>
-      <c r="S165" s="11"/>
-      <c r="T165" s="11"/>
-      <c r="U165" s="11" t="s">
+      <c r="R165" s="13"/>
+      <c r="S165" s="13"/>
+      <c r="T165" s="13"/>
+      <c r="U165" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V165" s="11"/>
+      <c r="V165" s="13"/>
     </row>
     <row r="166" spans="1:22">
       <c r="A166" s="5" t="s">
@@ -10021,35 +10027,35 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
-      <c r="L166" s="10" t="s">
+      <c r="L166" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M166" s="11" t="s">
+      <c r="M166" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="N166" s="11" t="s">
+      <c r="N166" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O166" s="11" t="s">
+      <c r="O166" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P166" s="11" t="s">
+      <c r="P166" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q166" s="11" t="s">
+      <c r="Q166" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="R166" s="11" t="s">
+      <c r="R166" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="S166" s="11"/>
-      <c r="T166" s="11" t="s">
+      <c r="S166" s="13"/>
+      <c r="T166" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="U166" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V166" s="11"/>
+      <c r="U166" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V166" s="13"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -10065,29 +10071,29 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
-      <c r="L167" s="10" t="s">
+      <c r="L167" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M167" s="11" t="s">
+      <c r="M167" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="N167" s="11" t="s">
+      <c r="N167" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O167" s="11" t="s">
+      <c r="O167" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P167" s="11"/>
-      <c r="Q167" s="11" t="s">
+      <c r="P167" s="13"/>
+      <c r="Q167" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="R167" s="11"/>
-      <c r="S167" s="11"/>
-      <c r="T167" s="11"/>
-      <c r="U167" s="11" t="s">
+      <c r="R167" s="13"/>
+      <c r="S167" s="13"/>
+      <c r="T167" s="13"/>
+      <c r="U167" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="V167" s="11"/>
+      <c r="V167" s="13"/>
     </row>
     <row r="168" spans="1:22">
       <c r="A168" s="5" t="s">
@@ -10103,35 +10109,35 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
-      <c r="L168" s="10" t="s">
+      <c r="L168" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M168" s="11" t="s">
+      <c r="M168" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="N168" s="11" t="s">
+      <c r="N168" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O168" s="11" t="s">
+      <c r="O168" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P168" s="11" t="s">
+      <c r="P168" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q168" s="11" t="s">
+      <c r="Q168" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="R168" s="11" t="s">
+      <c r="R168" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="S168" s="11"/>
-      <c r="T168" s="11" t="s">
+      <c r="S168" s="13"/>
+      <c r="T168" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="U168" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V168" s="11"/>
+      <c r="U168" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="V168" s="13"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
@@ -10147,79 +10153,79 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
-      <c r="L169" s="10" t="s">
+      <c r="L169" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="M169" s="11" t="s">
+      <c r="M169" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="N169" s="11" t="s">
+      <c r="N169" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O169" s="11" t="s">
+      <c r="O169" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="P169" s="11" t="s">
+      <c r="P169" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="Q169" s="11" t="s">
+      <c r="Q169" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="R169" s="11"/>
-      <c r="S169" s="11"/>
-      <c r="T169" s="11" t="s">
+      <c r="R169" s="13"/>
+      <c r="S169" s="13"/>
+      <c r="T169" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="U169" s="11" t="s">
+      <c r="U169" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="V169" s="11" t="s">
+      <c r="V169" s="13" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5" t="s">
+      <c r="C170" s="2"/>
+      <c r="D170" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K170" s="5"/>
+      <c r="K170" s="2"/>
       <c r="L170" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M170" s="5" t="s">
+      <c r="M170" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N170" s="5"/>
-      <c r="O170" s="5" t="s">
+      <c r="N170" s="2"/>
+      <c r="O170" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P170" s="5"/>
+      <c r="P170" s="2"/>
       <c r="Q170" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V170" s="5"/>
+      <c r="V170" s="2"/>
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="5" t="s">
